--- a/pellet_prices.xlsx
+++ b/pellet_prices.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prices!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prices!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
   <si>
     <t>fetched_at</t>
   </si>
@@ -43,6 +43,15 @@
     <t>2026-02-03</t>
   </si>
   <si>
+    <t>https://wolebio.pl/produkt/pellet-gold/</t>
+  </si>
+  <si>
+    <t>woocommerce</t>
+  </si>
+  <si>
+    <t>https://wolebio.pl/produkt/pellet-olimp-6-mm-5/</t>
+  </si>
+  <si>
     <t>https://pellet4future.com/pellet-drzewny-freetime-2010-llc-solid-teploenergo.html</t>
   </si>
   <si>
@@ -52,19 +61,28 @@
     <t>https://pellet4future.com/pellet-drzewny-granulita.html</t>
   </si>
   <si>
-    <t>https://wolebio.pl/produkt/pellet-gold/</t>
-  </si>
-  <si>
-    <t>woocommerce</t>
-  </si>
-  <si>
-    <t>https://wolebio.pl/produkt/pellet-olimp-6-mm-5/</t>
-  </si>
-  <si>
     <t>2026-02-04</t>
   </si>
   <si>
     <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>https://wolebio.pl/produkt/pellet-lava-premium/</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
 </sst>
 </file>
@@ -458,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -519,13 +537,13 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
-        <v>1514.2</v>
+        <v>1935</v>
       </c>
       <c r="E3" s="6">
         <v>975</v>
       </c>
       <c r="F3" s="7">
-        <v>1.553026</v>
+        <v>1.984615</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
@@ -540,13 +558,13 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10">
-        <v>1845</v>
+        <v>2050</v>
       </c>
       <c r="E4" s="11">
         <v>975</v>
       </c>
       <c r="F4" s="12">
-        <v>1.892308</v>
+        <v>2.102564</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>9</v>
@@ -561,13 +579,13 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
-        <v>1935</v>
+        <v>1514.2</v>
       </c>
       <c r="E5" s="6">
         <v>975</v>
       </c>
       <c r="F5" s="7">
-        <v>1.984615</v>
+        <v>1.553026</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -582,13 +600,13 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10">
-        <v>2050</v>
+        <v>1845</v>
       </c>
       <c r="E6" s="11">
         <v>975</v>
       </c>
       <c r="F6" s="12">
-        <v>2.102564</v>
+        <v>1.892308</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>12</v>
@@ -603,13 +621,13 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
-        <v>1514.2</v>
+        <v>1935</v>
       </c>
       <c r="E7" s="6">
         <v>975</v>
       </c>
       <c r="F7" s="7">
-        <v>1.553026</v>
+        <v>1.984615</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
@@ -624,13 +642,13 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10">
-        <v>1845</v>
+        <v>2179</v>
       </c>
       <c r="E8" s="11">
         <v>975</v>
       </c>
       <c r="F8" s="12">
-        <v>1.892308</v>
+        <v>2.234872</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>9</v>
@@ -645,13 +663,13 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5">
-        <v>1935</v>
+        <v>1514.2</v>
       </c>
       <c r="E9" s="6">
         <v>975</v>
       </c>
       <c r="F9" s="7">
-        <v>1.984615</v>
+        <v>1.553026</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
@@ -666,13 +684,13 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
-        <v>2179</v>
+        <v>1845</v>
       </c>
       <c r="E10" s="11">
         <v>975</v>
       </c>
       <c r="F10" s="12">
-        <v>2.234872</v>
+        <v>1.892308</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>12</v>
@@ -698,13 +716,13 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10">
-        <v>1514.2</v>
+        <v>1935</v>
       </c>
       <c r="E12" s="11">
         <v>975</v>
       </c>
       <c r="F12" s="12">
-        <v>1.553026</v>
+        <v>1.984615</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>9</v>
@@ -718,18 +736,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>1845</v>
-      </c>
-      <c r="E13" s="6">
-        <v>975</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1.892308</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8">
@@ -740,13 +750,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10">
-        <v>1935</v>
+        <v>1514.2</v>
       </c>
       <c r="E14" s="11">
         <v>975</v>
       </c>
       <c r="F14" s="12">
-        <v>1.984615</v>
+        <v>1.553026</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>12</v>
@@ -760,10 +770,18 @@
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E15" s="6">
+        <v>975</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
@@ -785,13 +803,13 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5">
-        <v>1514.2</v>
+        <v>1935</v>
       </c>
       <c r="E17" s="6">
         <v>975</v>
       </c>
       <c r="F17" s="7">
-        <v>1.553026</v>
+        <v>1.984615</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>9</v>
@@ -805,18 +823,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10">
-        <v>1845</v>
-      </c>
-      <c r="E18" s="11">
-        <v>975</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1.892308</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
@@ -827,13 +837,13 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5">
-        <v>1935</v>
+        <v>1514.2</v>
       </c>
       <c r="E19" s="6">
         <v>975</v>
       </c>
       <c r="F19" s="7">
-        <v>1.984615</v>
+        <v>1.553026</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -847,19 +857,1105 @@
         <v>13</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="10">
+        <v>1845</v>
+      </c>
+      <c r="E20" s="11">
+        <v>975</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1.892308</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>46058.56462962963</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>46058.56462962963</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E22" s="11">
+        <v>975</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>46058.56462962963</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E23" s="6">
+        <v>975</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>46058.56462962963</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10">
+        <v>1514.2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>975</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1.553026</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>46058.56462962963</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E25" s="6">
+        <v>975</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>46059.34320601852</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E27" s="6">
+        <v>975</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>46059.34320601852</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10">
+        <v>1514.2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>975</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1.553026</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>46059.34320601852</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E29" s="6">
+        <v>975</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>46059.34320601852</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E30" s="11">
+        <v>975</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>46059.34320601852</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8">
+        <v>46059.56471064815</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10">
+        <v>1935</v>
+      </c>
+      <c r="E32" s="11">
+        <v>975</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1.984615</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>46059.56471064815</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E33" s="6">
+        <v>975</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8">
+        <v>46059.56471064815</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10">
+        <v>2179</v>
+      </c>
+      <c r="E34" s="11">
+        <v>975</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2.234872</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>46059.56471064815</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <v>1514.2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>975</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.553026</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8">
+        <v>46059.56471064815</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E36" s="11">
+        <v>975</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8">
+        <v>46060.33527777778</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E38" s="11">
+        <v>975</v>
+      </c>
+      <c r="F38" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>46060.33527777778</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E39" s="6">
+        <v>975</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8">
+        <v>46060.33527777778</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10">
+        <v>2179</v>
+      </c>
+      <c r="E40" s="11">
+        <v>975</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2.234872</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>46060.33527777778</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5">
+        <v>1514.2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>975</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.553026</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8">
+        <v>46060.33527777778</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10">
+        <v>1845</v>
+      </c>
+      <c r="E42" s="11">
+        <v>975</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1.892308</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>46060.56467592593</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5">
+        <v>1514.2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>975</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1.553026</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8">
+        <v>46060.56467592593</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10">
+        <v>2179</v>
+      </c>
+      <c r="E44" s="11">
+        <v>975</v>
+      </c>
+      <c r="F44" s="12">
+        <v>2.234872</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>46060.56467592593</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5">
+        <v>2055</v>
+      </c>
+      <c r="E45" s="6">
+        <v>975</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2.107692</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8">
+        <v>46060.56467592593</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10">
+        <v>1845</v>
+      </c>
+      <c r="E46" s="11">
+        <v>975</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1.892308</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>46060.56467592593</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E47" s="6">
+        <v>975</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>46061.33895833333</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E49" s="6">
+        <v>975</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8">
+        <v>46061.33895833333</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E50" s="11">
+        <v>975</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>46061.33895833333</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E51" s="6">
+        <v>975</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8">
+        <v>46061.33895833333</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10">
+        <v>2179</v>
+      </c>
+      <c r="E52" s="11">
+        <v>975</v>
+      </c>
+      <c r="F52" s="12">
+        <v>2.234872</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>46061.33895833333</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5">
+        <v>1514.2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>975</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1.553026</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>46062.35592592593</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5">
+        <v>1935</v>
+      </c>
+      <c r="E55" s="6">
+        <v>975</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1.984615</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8">
+        <v>46062.35592592593</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10">
+        <v>2179</v>
+      </c>
+      <c r="E56" s="11">
+        <v>975</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2.234872</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>46062.35592592593</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5">
+        <v>1514.2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>975</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1.553026</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="8">
+        <v>46062.35592592593</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10">
+        <v>1845</v>
+      </c>
+      <c r="E58" s="11">
+        <v>975</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1.892308</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>46062.35592592593</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5">
+        <v>2055</v>
+      </c>
+      <c r="E59" s="6">
+        <v>975</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2.107692</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="8">
+        <v>46062.56467592593</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E60" s="11">
+        <v>975</v>
+      </c>
+      <c r="F60" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>46062.56467592593</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E61" s="6">
+        <v>975</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="8">
+        <v>46062.56467592593</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10">
+        <v>1514.2</v>
+      </c>
+      <c r="E62" s="11">
+        <v>975</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1.553026</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>46062.56467592593</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5">
+        <v>2179</v>
+      </c>
+      <c r="E63" s="6">
+        <v>975</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2.234872</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="8">
+        <v>46062.56467592593</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="8">
+        <v>46063.35597222222</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10">
+        <v>1514.2</v>
+      </c>
+      <c r="E66" s="11">
+        <v>975</v>
+      </c>
+      <c r="F66" s="12">
+        <v>1.553026</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>46063.35597222222</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5">
+        <v>2179</v>
+      </c>
+      <c r="E67" s="6">
+        <v>975</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2.234872</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="8">
+        <v>46063.35597222222</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10">
+        <v>1845</v>
+      </c>
+      <c r="E68" s="11">
+        <v>975</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1.892308</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>46063.35597222222</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8">
+        <v>46063.35597222222</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E70" s="11">
+        <v>975</v>
+      </c>
+      <c r="F70" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>46063.56467592593</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5">
+        <v>2179</v>
+      </c>
+      <c r="E71" s="6">
+        <v>975</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2.234872</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="8">
+        <v>46063.56467592593</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10">
+        <v>2055</v>
+      </c>
+      <c r="E72" s="11">
+        <v>975</v>
+      </c>
+      <c r="F72" s="12">
+        <v>2.107692</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>46063.56467592593</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5">
+        <v>2115</v>
+      </c>
+      <c r="E73" s="6">
+        <v>975</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2.169231</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="8">
+        <v>46063.56467592593</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10">
+        <v>1514.2</v>
+      </c>
+      <c r="E74" s="11">
+        <v>975</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1.553026</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>46063.56467592593</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E75" s="6">
+        <v>975</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1.892308</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20"/>
-  <mergeCells count="3">
+  <autoFilter ref="A1:G75"/>
+  <mergeCells count="8">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -888,6 +1984,56 @@
     <hyperlink ref="B18" r:id="rId14"/>
     <hyperlink ref="B19" r:id="rId15"/>
     <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B38" r:id="rId32"/>
+    <hyperlink ref="B39" r:id="rId33"/>
+    <hyperlink ref="B40" r:id="rId34"/>
+    <hyperlink ref="B41" r:id="rId35"/>
+    <hyperlink ref="B42" r:id="rId36"/>
+    <hyperlink ref="B43" r:id="rId37"/>
+    <hyperlink ref="B44" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B53" r:id="rId46"/>
+    <hyperlink ref="B55" r:id="rId47"/>
+    <hyperlink ref="B56" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B58" r:id="rId50"/>
+    <hyperlink ref="B59" r:id="rId51"/>
+    <hyperlink ref="B60" r:id="rId52"/>
+    <hyperlink ref="B61" r:id="rId53"/>
+    <hyperlink ref="B62" r:id="rId54"/>
+    <hyperlink ref="B63" r:id="rId55"/>
+    <hyperlink ref="B64" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
